--- a/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
+++ b/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训3\实训拓展\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E0120-4A67-4102-8B6D-AF8D91AFD07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,10 +281,10 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -302,6 +302,1016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t>飞利浦各类白炽灯采购金额</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF2F-4AEE-82BB-82D74A7921C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
+        <c:axId val="175437696"/>
+        <c:axId val="175439360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="175437696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175439360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="175439360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175437696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,23 +1390,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -432,23 +1425,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,7 +1600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -646,17 +1622,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -713,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="9">
-        <f>F3*G3*H3</f>
+        <f t="shared" ref="I3:I23" si="0">F3*G3*H3</f>
         <v>1260</v>
       </c>
     </row>
@@ -743,7 +1719,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="9">
-        <f>F4*G4*H4</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
@@ -773,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="9">
-        <f>F5*G5*H5</f>
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
     </row>
@@ -803,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="9">
-        <f>F6*G6*H6</f>
+        <f t="shared" si="0"/>
         <v>388.80000000000007</v>
       </c>
     </row>
@@ -833,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="9">
-        <f>F7*G7*H7</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
     </row>
@@ -863,7 +1839,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="9">
-        <f>F8*G8*H8</f>
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
     </row>
@@ -893,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="9">
-        <f>F9*G9*H9</f>
+        <f t="shared" si="0"/>
         <v>2970</v>
       </c>
     </row>
@@ -923,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="9">
-        <f>F10*G10*H10</f>
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
     </row>
@@ -953,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="9">
-        <f>F11*G11*H11</f>
+        <f t="shared" si="0"/>
         <v>825</v>
       </c>
     </row>
@@ -983,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="9">
-        <f>F12*G12*H12</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
@@ -1013,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="9">
-        <f>F13*G13*H13</f>
+        <f t="shared" si="0"/>
         <v>592.79999999999995</v>
       </c>
     </row>
@@ -1043,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="9">
-        <f>F14*G14*H14</f>
+        <f t="shared" si="0"/>
         <v>335.99999999999994</v>
       </c>
     </row>
@@ -1073,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="9">
-        <f>F15*G15*H15</f>
+        <f t="shared" si="0"/>
         <v>378.00000000000006</v>
       </c>
     </row>
@@ -1103,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="9">
-        <f>F16*G16*H16</f>
+        <f t="shared" si="0"/>
         <v>2322</v>
       </c>
     </row>
@@ -1133,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="9">
-        <f>F17*G17*H17</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
     </row>
@@ -1163,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="9">
-        <f>F18*G18*H18</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
     </row>
@@ -1193,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="9">
-        <f>F19*G19*H19</f>
+        <f t="shared" si="0"/>
         <v>491.99999999999994</v>
       </c>
     </row>
@@ -1223,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="9">
-        <f>F20*G20*H20</f>
+        <f t="shared" si="0"/>
         <v>702</v>
       </c>
     </row>
@@ -1253,7 +2229,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="9">
-        <f>F21*G21*H21</f>
+        <f t="shared" si="0"/>
         <v>576.00000000000011</v>
       </c>
     </row>
@@ -1283,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="I22" s="9">
-        <f>F22*G22*H22</f>
+        <f t="shared" si="0"/>
         <v>8010</v>
       </c>
     </row>
@@ -1313,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="9">
-        <f>F23*G23*H23</f>
+        <f t="shared" si="0"/>
         <v>5340</v>
       </c>
     </row>
@@ -1440,7 +2416,7 @@
       <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I23">
+  <sortState ref="A3:I23">
     <sortCondition ref="B3:B23"/>
     <sortCondition descending="1" ref="C3:C23"/>
     <sortCondition descending="1" ref="E3:E23"/>
@@ -1455,10 +2431,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5C953C-75A0-4EE0-8A2D-D7D3A67A053C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1474,17 +2450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -1546,7 +2522,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="7"/>
@@ -1592,7 +2568,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="7"/>
@@ -1638,7 +2614,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7"/>
@@ -1684,7 +2660,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="7"/>
@@ -1730,7 +2706,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7"/>
@@ -1776,7 +2752,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7"/>
@@ -1822,7 +2798,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7"/>
@@ -1868,7 +2844,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="7"/>
@@ -1914,7 +2890,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="7"/>
@@ -1960,7 +2936,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="7"/>
@@ -2006,7 +2982,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="7"/>
@@ -2052,7 +3028,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="7"/>
@@ -2098,7 +3074,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="7"/>
@@ -2144,7 +3120,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="7"/>
@@ -2190,7 +3166,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="7"/>
@@ -2236,7 +3212,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="7"/>
@@ -2282,7 +3258,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="7"/>
@@ -2328,7 +3304,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="7"/>
@@ -2374,7 +3350,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="7"/>
@@ -2420,7 +3396,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="7"/>
@@ -2466,7 +3442,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="7"/>
@@ -2482,7 +3458,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="7"/>
@@ -2498,7 +3474,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I43">
+  <sortState ref="A3:I43">
     <sortCondition ref="B3:B43"/>
     <sortCondition ref="C3:C43"/>
   </sortState>
@@ -2511,27 +3487,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB09941A-5433-4C0D-906F-F3DEB77D335C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2564,152 +3540,152 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="8">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G3" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H3" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I3" s="9">
         <f>F3*G3*H3</f>
-        <v>780</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
         <v>100</v>
       </c>
       <c r="E4" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="8">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I23" si="0">F4*G4*H4</f>
-        <v>2800</v>
+        <f>F4*G4*H4</f>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>3000</v>
       </c>
       <c r="F5" s="8">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="G5" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="0"/>
-        <v>1440</v>
+        <f>F5*G5*H5</f>
+        <v>388.80000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="8">
-        <v>89</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G6" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="0"/>
-        <v>5340</v>
+        <f>F6*G6*H6</f>
+        <v>1380</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G7" s="7">
         <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
-        <v>592.79999999999995</v>
+        <f>F7*G7*H7</f>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2738,338 +3714,338 @@
         <v>20</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="0"/>
+        <f>F8*G8*H8</f>
         <v>6400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="7">
         <v>3000</v>
       </c>
       <c r="F9" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7">
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <f>F9*G9*H9</f>
+        <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7">
         <v>10000</v>
       </c>
       <c r="F10" s="8">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
       <c r="I10" s="9">
-        <f t="shared" si="0"/>
-        <v>8010</v>
+        <f>F10*G10*H10</f>
+        <v>2322</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="8">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="G11" s="7">
         <v>12</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="0"/>
-        <v>388.80000000000007</v>
+        <f>F11*G11*H11</f>
+        <v>592.79999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="F12" s="8">
-        <v>240</v>
+        <v>2.1</v>
       </c>
       <c r="G12" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <f>F12*G12*H12</f>
+        <v>378.00000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="8">
-        <v>99</v>
+        <v>2.8</v>
       </c>
       <c r="G13" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="0"/>
-        <v>2970</v>
+        <f>F13*G13*H13</f>
+        <v>335.99999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E14" s="7">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="8">
-        <v>2.1</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="0"/>
-        <v>378.00000000000006</v>
+        <f>F14*G14*H14</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E15" s="7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="8">
-        <v>4.0999999999999996</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="0"/>
-        <v>491.99999999999994</v>
+        <f>F15*G15*H15</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="8">
-        <v>4.5999999999999996</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="0"/>
-        <v>1380</v>
+        <f>F16*G16*H16</f>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="D17" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E17" s="7">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="F17" s="8">
-        <v>3.6</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="0"/>
-        <v>648</v>
+        <f>F17*G17*H17</f>
+        <v>5340</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E18" s="7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F18" s="8">
-        <v>2.8</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="0"/>
-        <v>335.99999999999994</v>
+        <f>F18*G18*H18</f>
+        <v>8010</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>60</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G19" s="7">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F19" s="8">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
       <c r="I19" s="9">
-        <f t="shared" si="0"/>
-        <v>2322</v>
+        <f>F19*G19*H19</f>
+        <v>491.99999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3098,105 +4074,111 @@
         <v>13</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="0"/>
+        <f>F20*G20*H20</f>
         <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E21" s="7">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="8">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="G21" s="7">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
         <v>15</v>
       </c>
-      <c r="H21" s="7">
-        <v>5</v>
-      </c>
       <c r="I21" s="9">
-        <f t="shared" si="0"/>
-        <v>825</v>
+        <f>F21*G21*H21</f>
+        <v>576.00000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E22" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="8">
-        <v>3.2</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="0"/>
-        <v>576.00000000000011</v>
+        <f>F22*G22*H22</f>
+        <v>2800</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7">
         <v>3000</v>
       </c>
       <c r="F23" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7">
         <v>15</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="0"/>
-        <v>1260</v>
+        <f>F23*G23*H23</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:I23">
+    <sortCondition ref="B3:B23"/>
+    <sortCondition ref="C3:C23"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
+++ b/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="22">
   <si>
     <t>瓦数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,70 +107,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 汇总</t>
+    <t>总计</t>
   </si>
   <si>
-    <t>6 汇总</t>
+    <t>飞利浦 汇总</t>
   </si>
   <si>
-    <t>9 汇总</t>
+    <t>雷士 汇总</t>
   </si>
   <si>
-    <t>11 汇总</t>
-  </si>
-  <si>
-    <t>14 汇总</t>
-  </si>
-  <si>
-    <t>15 汇总</t>
-  </si>
-  <si>
-    <t>21 汇总</t>
-  </si>
-  <si>
-    <t>5 汇总</t>
-  </si>
-  <si>
-    <t>7 汇总</t>
-  </si>
-  <si>
-    <t>10 汇总</t>
-  </si>
-  <si>
-    <t>12 汇总</t>
-  </si>
-  <si>
-    <t>16 汇总</t>
-  </si>
-  <si>
-    <t>17 汇总</t>
-  </si>
-  <si>
-    <t>19 汇总</t>
-  </si>
-  <si>
-    <t>2 汇总</t>
-  </si>
-  <si>
-    <t>3 汇总</t>
-  </si>
-  <si>
-    <t>4 汇总</t>
-  </si>
-  <si>
-    <t>8 汇总</t>
-  </si>
-  <si>
-    <t>13 汇总</t>
-  </si>
-  <si>
-    <t>18 汇总</t>
-  </si>
-  <si>
-    <t>20 汇总</t>
-  </si>
-  <si>
-    <t>总计</t>
+    <t>欧普 汇总</t>
   </si>
 </sst>
 </file>
@@ -281,10 +227,10 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +408,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF2F-4AEE-82BB-82D74A7921C6}"/>
+              <c16:uniqueId val="{00000000-BAD4-4733-9667-31F729F5AC5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,8 +1242,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1622,17 +1570,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2432,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -2450,17 +2398,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2521,25 +2469,39 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+    <row r="4" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7">
+        <v>13</v>
+      </c>
       <c r="I4" s="9">
-        <f>SUBTOTAL(9,I3:I3)</f>
-        <v>2970</v>
+        <f>F4*G4*H4</f>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -2548,44 +2510,58 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>3000</v>
       </c>
       <c r="F5" s="8">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="G5" s="7">
         <v>12</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="9">
         <f>F5*G5*H5</f>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+        <v>388.80000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G6" s="7">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
+        <v>25</v>
+      </c>
       <c r="I6" s="9">
-        <f>SUBTOTAL(9,I5:I5)</f>
-        <v>780</v>
+        <f>F6*G6*H6</f>
+        <v>1380</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
@@ -2594,76 +2570,90 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="8">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="G7" s="7">
         <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" s="9">
         <f>F7*G7*H7</f>
-        <v>388.80000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="8">
+        <v>320</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
       <c r="I8" s="9">
-        <f>SUBTOTAL(9,I7:I7)</f>
-        <v>388.80000000000007</v>
+        <f>F8*G8*H8</f>
+        <v>6400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E9" s="7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F9" s="8">
-        <v>4.5999999999999996</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I9" s="9">
         <f>F9*G9*H9</f>
-        <v>1380</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2671,183 +2661,225 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9">
-        <f>SUBTOTAL(9,I9:I9)</f>
-        <v>1380</v>
+        <f>SUBTOTAL(9,I3:I9)</f>
+        <v>13826.8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="8">
-        <v>3.6</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
         <f>F11*G11*H11</f>
-        <v>648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
       <c r="I12" s="9">
-        <f>SUBTOTAL(9,I11:I11)</f>
-        <v>648</v>
+        <f>F12*G12*H12</f>
+        <v>592.79999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="F13" s="8">
-        <v>320</v>
+        <v>2.1</v>
       </c>
       <c r="G13" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13" s="9">
         <f>F13*G13*H13</f>
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>378.00000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
       <c r="I14" s="9">
-        <f>SUBTOTAL(9,I13:I13)</f>
-        <v>6400</v>
+        <f>F14*G14*H14</f>
+        <v>335.99999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D15" s="7">
         <v>100</v>
       </c>
       <c r="E15" s="7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="G15" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="9">
         <f>F15*G15*H15</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>200</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="8">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
       <c r="I16" s="9">
-        <f>SUBTOTAL(9,I15:I15)</f>
-        <v>1260</v>
+        <f>F16*G16*H16</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E17" s="7">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="8">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="9">
         <f>F17*G17*H17</f>
-        <v>2322</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2855,108 +2887,136 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="9">
-        <f>SUBTOTAL(9,I17:I17)</f>
-        <v>2322</v>
+        <f>SUBTOTAL(9,I11:I17)</f>
+        <v>8353.7999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="G19" s="7">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
       </c>
       <c r="I19" s="9">
         <f>F19*G19*H19</f>
-        <v>592.79999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>30</v>
+      </c>
       <c r="I20" s="9">
-        <f>SUBTOTAL(9,I19:I19)</f>
-        <v>592.79999999999995</v>
+        <f>F20*G20*H20</f>
+        <v>8010</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G21" s="7">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
         <v>10</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7">
-        <v>800</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15</v>
       </c>
       <c r="I21" s="9">
         <f>F21*G21*H21</f>
-        <v>378.00000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>491.99999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7">
+        <v>13</v>
+      </c>
       <c r="I22" s="9">
-        <f>SUBTOTAL(9,I21:I21)</f>
-        <v>378.00000000000006</v>
+        <f>F22*G22*H22</f>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
@@ -2968,70 +3028,84 @@
         <v>1000</v>
       </c>
       <c r="F23" s="8">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="G23" s="7">
         <v>12</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I23" s="9">
         <f>F23*G23*H23</f>
-        <v>335.99999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+        <v>576.00000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="8">
+        <v>280</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
       <c r="I24" s="9">
-        <f>SUBTOTAL(9,I23:I23)</f>
-        <v>335.99999999999994</v>
+        <f>F24*G24*H24</f>
+        <v>2800</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E25" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F25" s="8">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I25" s="9">
         <f>F25*G25*H25</f>
-        <v>1200</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -3039,450 +3113,34 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9">
-        <f>SUBTOTAL(9,I25:I25)</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>7</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7">
-        <v>200</v>
-      </c>
-      <c r="E27" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F27" s="8">
-        <v>15</v>
-      </c>
-      <c r="G27" s="7">
-        <v>15</v>
-      </c>
-      <c r="H27" s="7">
-        <v>12</v>
-      </c>
+        <f>SUBTOTAL(9,I19:I25)</f>
+        <v>19360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="9">
-        <f>F27*G27*H27</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9">
-        <f>SUBTOTAL(9,I27:I27)</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>19</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>100</v>
-      </c>
-      <c r="E29" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F29" s="8">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7">
-        <v>15</v>
-      </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="9">
-        <f>F29*G29*H29</f>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9">
-        <f>SUBTOTAL(9,I29:I29)</f>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>4</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3</v>
-      </c>
-      <c r="E31" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F31" s="8">
-        <v>89</v>
-      </c>
-      <c r="G31" s="7">
-        <v>6</v>
-      </c>
-      <c r="H31" s="7">
-        <v>10</v>
-      </c>
-      <c r="I31" s="9">
-        <f>F31*G31*H31</f>
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9">
-        <f>SUBTOTAL(9,I31:I31)</f>
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>8</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3</v>
-      </c>
-      <c r="E33" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F33" s="8">
-        <v>89</v>
-      </c>
-      <c r="G33" s="7">
-        <v>3</v>
-      </c>
-      <c r="H33" s="7">
-        <v>30</v>
-      </c>
-      <c r="I33" s="9">
-        <f>F33*G33*H33</f>
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9">
-        <f>SUBTOTAL(9,I33:I33)</f>
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>13</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="7">
-        <v>60</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G35" s="7">
-        <v>12</v>
-      </c>
-      <c r="H35" s="7">
-        <v>10</v>
-      </c>
-      <c r="I35" s="9">
-        <f>F35*G35*H35</f>
-        <v>491.99999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="9">
-        <f>SUBTOTAL(9,I35:I35)</f>
-        <v>491.99999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>18</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7">
-        <v>100</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F37" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="G37" s="7">
-        <v>12</v>
-      </c>
-      <c r="H37" s="7">
-        <v>13</v>
-      </c>
-      <c r="I37" s="9">
-        <f>F37*G37*H37</f>
-        <v>702</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9">
-        <f>SUBTOTAL(9,I37:I37)</f>
-        <v>702</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>20</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="7">
-        <v>40</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="G39" s="7">
-        <v>12</v>
-      </c>
-      <c r="H39" s="7">
-        <v>15</v>
-      </c>
-      <c r="I39" s="9">
-        <f>F39*G39*H39</f>
-        <v>576.00000000000011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="9">
-        <f>SUBTOTAL(9,I39:I39)</f>
-        <v>576.00000000000011</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>2</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="7">
-        <v>100</v>
-      </c>
-      <c r="E41" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F41" s="8">
-        <v>280</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
-        <v>10</v>
-      </c>
-      <c r="I41" s="9">
-        <f>F41*G41*H41</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9">
-        <f>SUBTOTAL(9,I41:I41)</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>3</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7">
-        <v>60</v>
-      </c>
-      <c r="E43" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F43" s="8">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7">
-        <v>15</v>
-      </c>
-      <c r="H43" s="7">
-        <v>8</v>
-      </c>
-      <c r="I43" s="9">
-        <f>F43*G43*H43</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="9">
-        <f>SUBTOTAL(9,I43:I43)</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="9">
-        <f>SUBTOTAL(9,I3:I43)</f>
+        <f>SUBTOTAL(9,I3:I25)</f>
         <v>41540.6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:I43">
-    <sortCondition ref="B3:B43"/>
-    <sortCondition ref="C3:C43"/>
-  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3490,24 +3148,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3564,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="9">
-        <f>F3*G3*H3</f>
+        <f t="shared" ref="I3:I23" si="0">F3*G3*H3</f>
         <v>2970</v>
       </c>
     </row>
@@ -3594,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <f>F4*G4*H4</f>
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
     </row>
@@ -3624,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="9">
-        <f>F5*G5*H5</f>
+        <f t="shared" si="0"/>
         <v>388.80000000000007</v>
       </c>
     </row>
@@ -3654,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="9">
-        <f>F6*G6*H6</f>
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
     </row>
@@ -3684,7 +3342,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="9">
-        <f>F7*G7*H7</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
     </row>
@@ -3714,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="9">
-        <f>F8*G8*H8</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
@@ -3744,7 +3402,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="9">
-        <f>F9*G9*H9</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
     </row>
@@ -3774,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="9">
-        <f>F10*G10*H10</f>
+        <f t="shared" si="0"/>
         <v>2322</v>
       </c>
     </row>
@@ -3804,7 +3462,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="9">
-        <f>F11*G11*H11</f>
+        <f t="shared" si="0"/>
         <v>592.79999999999995</v>
       </c>
     </row>
@@ -3834,7 +3492,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="9">
-        <f>F12*G12*H12</f>
+        <f t="shared" si="0"/>
         <v>378.00000000000006</v>
       </c>
     </row>
@@ -3864,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="9">
-        <f>F13*G13*H13</f>
+        <f t="shared" si="0"/>
         <v>335.99999999999994</v>
       </c>
     </row>
@@ -3894,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="9">
-        <f>F14*G14*H14</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
@@ -3924,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="9">
-        <f>F15*G15*H15</f>
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
     </row>
@@ -3954,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="9">
-        <f>F16*G16*H16</f>
+        <f t="shared" si="0"/>
         <v>825</v>
       </c>
     </row>
@@ -3984,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="9">
-        <f>F17*G17*H17</f>
+        <f t="shared" si="0"/>
         <v>5340</v>
       </c>
     </row>
@@ -4014,7 +3672,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="9">
-        <f>F18*G18*H18</f>
+        <f t="shared" si="0"/>
         <v>8010</v>
       </c>
     </row>
@@ -4044,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="9">
-        <f>F19*G19*H19</f>
+        <f t="shared" si="0"/>
         <v>491.99999999999994</v>
       </c>
     </row>
@@ -4074,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="9">
-        <f>F20*G20*H20</f>
+        <f t="shared" si="0"/>
         <v>702</v>
       </c>
     </row>
@@ -4104,7 +3762,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="9">
-        <f>F21*G21*H21</f>
+        <f t="shared" si="0"/>
         <v>576.00000000000011</v>
       </c>
     </row>
@@ -4134,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="9">
-        <f>F22*G22*H22</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
     </row>
@@ -4164,7 +3822,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="9">
-        <f>F23*G23*H23</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
     </row>
@@ -4179,6 +3837,5 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
+++ b/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训3\实训拓展\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="32">
   <si>
     <t>瓦数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,11 +121,44 @@
   <si>
     <t>欧普 汇总</t>
   </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>LED灯</t>
+  </si>
+  <si>
+    <t>白炽灯</t>
+  </si>
+  <si>
+    <t>氖灯</t>
+  </si>
+  <si>
+    <t>日光灯</t>
+  </si>
+  <si>
+    <t>飞利浦</t>
+  </si>
+  <si>
+    <t>雷士</t>
+  </si>
+  <si>
+    <t>欧普</t>
+  </si>
+  <si>
+    <t>列标签</t>
+  </si>
+  <si>
+    <t>求和项:采购总额</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,11 +263,20 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,6 +1307,409 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="lenovo" refreshedDate="45273.388922685182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:I23" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="序号" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="21"/>
+    </cacheField>
+    <cacheField name="品牌" numFmtId="0">
+      <sharedItems count="3">
+        <s v="飞利浦"/>
+        <s v="雷士"/>
+        <s v="欧普"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="商品" numFmtId="0">
+      <sharedItems count="4">
+        <s v="LED灯"/>
+        <s v="白炽灯"/>
+        <s v="氖灯"/>
+        <s v="日光灯"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="瓦数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="200"/>
+    </cacheField>
+    <cacheField name="寿命（小时）" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="800" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="单价" numFmtId="40">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.1" maxValue="320"/>
+    </cacheField>
+    <cacheField name="每盒数量" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="采购盒数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="30"/>
+    </cacheField>
+    <cacheField name="采购总额" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="335.99999999999994" maxValue="8010"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
+  <r>
+    <n v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="10000"/>
+    <n v="99"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="2970"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="3000"/>
+    <n v="5"/>
+    <n v="12"/>
+    <n v="13"/>
+    <n v="780"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="3000"/>
+    <n v="2.7"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="388.80000000000007"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="1000"/>
+    <n v="4.5999999999999996"/>
+    <n v="12"/>
+    <n v="25"/>
+    <n v="1380"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="2000"/>
+    <n v="3.6"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="648"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="2500"/>
+    <n v="320"/>
+    <n v="1"/>
+    <n v="20"/>
+    <n v="6400"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="3000"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="6"/>
+    <n v="1260"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="10000"/>
+    <n v="129"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="2322"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="1000"/>
+    <n v="3.8"/>
+    <n v="12"/>
+    <n v="13"/>
+    <n v="592.79999999999995"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="25"/>
+    <n v="800"/>
+    <n v="2.1"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="378.00000000000006"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="1000"/>
+    <n v="2.8"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="335.99999999999994"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="2000"/>
+    <n v="240"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="3000"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="2700"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="100"/>
+    <n v="3000"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="5"/>
+    <n v="825"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="8000"/>
+    <n v="89"/>
+    <n v="6"/>
+    <n v="10"/>
+    <n v="5340"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="10000"/>
+    <n v="89"/>
+    <n v="3"/>
+    <n v="30"/>
+    <n v="8010"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="1000"/>
+    <n v="4.0999999999999996"/>
+    <n v="12"/>
+    <n v="10"/>
+    <n v="491.99999999999994"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="1000"/>
+    <n v="4.5"/>
+    <n v="12"/>
+    <n v="13"/>
+    <n v="702"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="40"/>
+    <n v="1000"/>
+    <n v="3.2"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="576.00000000000011"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="2000"/>
+    <n v="280"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="3000"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="1440"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K3:P8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="40" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:采购总额" fld="8" baseField="0" baseItem="0" numFmtId="176"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1570,17 +2018,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2382,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -2398,17 +2846,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2465,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="9">
-        <f>F3*G3*H3</f>
+        <f t="shared" ref="I3:I9" si="0">F3*G3*H3</f>
         <v>2970</v>
       </c>
     </row>
@@ -2495,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <f>F4*G4*H4</f>
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
     </row>
@@ -2525,7 +2973,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="9">
-        <f>F5*G5*H5</f>
+        <f t="shared" si="0"/>
         <v>388.80000000000007</v>
       </c>
     </row>
@@ -2555,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="9">
-        <f>F6*G6*H6</f>
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
     </row>
@@ -2585,7 +3033,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="9">
-        <f>F7*G7*H7</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
     </row>
@@ -2615,7 +3063,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="9">
-        <f>F8*G8*H8</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
@@ -2645,13 +3093,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="9">
-        <f>F9*G9*H9</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="7"/>
@@ -2691,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="9">
-        <f>F11*G11*H11</f>
+        <f t="shared" ref="I11:I17" si="1">F11*G11*H11</f>
         <v>2322</v>
       </c>
     </row>
@@ -2721,7 +3169,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="9">
-        <f>F12*G12*H12</f>
+        <f t="shared" si="1"/>
         <v>592.79999999999995</v>
       </c>
     </row>
@@ -2751,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="9">
-        <f>F13*G13*H13</f>
+        <f t="shared" si="1"/>
         <v>378.00000000000006</v>
       </c>
     </row>
@@ -2781,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="9">
-        <f>F14*G14*H14</f>
+        <f t="shared" si="1"/>
         <v>335.99999999999994</v>
       </c>
     </row>
@@ -2811,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="9">
-        <f>F15*G15*H15</f>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
@@ -2841,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="9">
-        <f>F16*G16*H16</f>
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
@@ -2871,13 +3319,13 @@
         <v>5</v>
       </c>
       <c r="I17" s="9">
-        <f>F17*G17*H17</f>
+        <f t="shared" si="1"/>
         <v>825</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7"/>
@@ -2917,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="9">
-        <f>F19*G19*H19</f>
+        <f t="shared" ref="I19:I25" si="2">F19*G19*H19</f>
         <v>5340</v>
       </c>
     </row>
@@ -2947,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="9">
-        <f>F20*G20*H20</f>
+        <f t="shared" si="2"/>
         <v>8010</v>
       </c>
     </row>
@@ -2977,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="9">
-        <f>F21*G21*H21</f>
+        <f t="shared" si="2"/>
         <v>491.99999999999994</v>
       </c>
     </row>
@@ -3007,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="9">
-        <f>F22*G22*H22</f>
+        <f t="shared" si="2"/>
         <v>702</v>
       </c>
     </row>
@@ -3037,7 +3485,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="9">
-        <f>F23*G23*H23</f>
+        <f t="shared" si="2"/>
         <v>576.00000000000011</v>
       </c>
     </row>
@@ -3067,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="9">
-        <f>F24*G24*H24</f>
+        <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
@@ -3097,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="I25" s="9">
-        <f>F25*G25*H25</f>
+        <f t="shared" si="2"/>
         <v>1440</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7"/>
@@ -3119,7 +3567,7 @@
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="7"/>
@@ -3146,28 +3594,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3196,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>11</v>
       </c>
@@ -3225,8 +3681,14 @@
         <f t="shared" ref="I3:I23" si="0">F3*G3*H3</f>
         <v>2970</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3255,8 +3717,26 @@
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -3285,8 +3765,26 @@
         <f t="shared" si="0"/>
         <v>388.80000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2970</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3196.8</v>
+      </c>
+      <c r="N5" s="14">
+        <v>6400</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1260</v>
+      </c>
+      <c r="P5" s="14">
+        <v>13826.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>14</v>
       </c>
@@ -3315,8 +3813,26 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2322</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1306.8</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="O6" s="14">
+        <v>3525</v>
+      </c>
+      <c r="P6" s="14">
+        <v>8353.7999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -3345,8 +3861,26 @@
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="14">
+        <v>13350</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1770</v>
+      </c>
+      <c r="N7" s="14">
+        <v>2800</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1440</v>
+      </c>
+      <c r="P7" s="14">
+        <v>19360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3375,8 +3909,26 @@
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="14">
+        <v>18642</v>
+      </c>
+      <c r="M8" s="14">
+        <v>6273.6</v>
+      </c>
+      <c r="N8" s="14">
+        <v>10400</v>
+      </c>
+      <c r="O8" s="14">
+        <v>6225</v>
+      </c>
+      <c r="P8" s="14">
+        <v>41540.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>21</v>
       </c>
@@ -3406,7 +3958,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>17</v>
       </c>
@@ -3436,7 +3988,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -3466,7 +4018,7 @@
         <v>592.79999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -3496,7 +4048,7 @@
         <v>378.00000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>16</v>
       </c>
@@ -3526,7 +4078,7 @@
         <v>335.99999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -3556,7 +4108,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -3586,7 +4138,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>19</v>
       </c>
@@ -3836,6 +4388,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
+++ b/大学信息技术/项目3/实训3/实训拓展/采购表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训3\实训拓展\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2DE13-D47A-4DB7-9CD8-0EDE5D879EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +21,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -266,9 +267,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +275,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,10 +319,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -329,14 +327,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN"/>
               <a:t>飞利浦各类白炽灯采购金额</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -352,10 +348,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -501,10 +494,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -571,10 +561,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -602,15 +589,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent2"/>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -620,7 +605,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -1287,7 +1279,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1308,7 +1306,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="lenovo" refreshedDate="45273.388922685182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45273.388922685182" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I23" sheet="Sheet3"/>
   </cacheSource>
@@ -1595,7 +1593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K3:P8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1706,6 +1704,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -1786,6 +1787,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1821,6 +1839,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1996,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -2018,17 +2053,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2812,7 +2847,7 @@
       <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A3:I23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I23">
     <sortCondition ref="B3:B23"/>
     <sortCondition descending="1" ref="C3:C23"/>
     <sortCondition descending="1" ref="E3:E23"/>
@@ -2827,11 +2862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -2846,17 +2881,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3593,11 +3628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3611,17 +3646,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3681,10 +3716,10 @@
         <f t="shared" ref="I3:I23" si="0">F3*G3*H3</f>
         <v>2970</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3717,7 +3752,7 @@
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L4" t="s">
@@ -3765,22 +3800,22 @@
         <f t="shared" si="0"/>
         <v>388.80000000000007</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>2970</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>3196.8</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>6400</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>1260</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>13826.8</v>
       </c>
     </row>
@@ -3813,22 +3848,22 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>2322</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>1306.8</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>1200</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <v>3525</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>8353.7999999999993</v>
       </c>
     </row>
@@ -3861,22 +3896,22 @@
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>13350</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>1770</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>2800</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>1440</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>19360</v>
       </c>
     </row>
@@ -3909,22 +3944,22 @@
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>18642</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>6273.6</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>10400</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>6225</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>41540.6</v>
       </c>
     </row>
@@ -4379,7 +4414,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:I23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I23">
     <sortCondition ref="B3:B23"/>
     <sortCondition ref="C3:C23"/>
   </sortState>
